--- a/NH_HealthCost_data/45385 Colonoscopy with polyp removal (outpatient).xlsx
+++ b/NH_HealthCost_data/45385 Colonoscopy with polyp removal (outpatient).xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/teresarokos/Desktop/Thesis Research/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/teresarokos/Desktop/Thesis Research/Thesis_Hospital_Costs/NH_HealthCost_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90BA090A-5147-B94B-A091-5C954DE0C972}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1563499-AA59-0747-865F-FECFF2B319E9}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="560" yWindow="1560" windowWidth="27240" windowHeight="15560" activeTab="4" xr2:uid="{D2B0B08D-CF73-C24D-AA71-BFA658BE0634}"/>
+    <workbookView xWindow="560" yWindow="1440" windowWidth="27240" windowHeight="15560" xr2:uid="{D2B0B08D-CF73-C24D-AA71-BFA658BE0634}"/>
   </bookViews>
   <sheets>
-    <sheet name="Anthem - NH" sheetId="1" r:id="rId1"/>
+    <sheet name="Anthem NH" sheetId="1" r:id="rId1"/>
     <sheet name="CIGNA" sheetId="2" r:id="rId2"/>
     <sheet name="Harvard Pilgrim HC" sheetId="3" r:id="rId3"/>
     <sheet name="Other" sheetId="5" r:id="rId4"/>
@@ -9905,8 +9905,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BE1CE08-3596-8646-921B-8C66B8A865C4}">
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11238,7 +11238,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A5ABFBB-BAC7-794E-BB21-D03D8939D419}">
   <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A64" workbookViewId="0">
       <selection sqref="A1:E37"/>
     </sheetView>
   </sheetViews>
